--- a/data/trans_orig/Q4503-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4503-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FE66A5-4157-4C8E-A19A-5999BDCE268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A1B3AD-41A2-4B8A-9210-B9F2A336BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7C69B21-8352-4CBF-9EDA-E0A6B75AD820}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BCE5A26F-82F0-49E8-82C6-5C5C5A0CA820}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3008,7 +3008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A60BBFE-9913-43C3-9367-6678176F1385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159A13E-29DB-4104-B9DC-AE1F3A26BB5A}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4319,7 +4319,7 @@
         <v>1550</v>
       </c>
       <c r="I27" s="7">
-        <v>1583316</v>
+        <v>1583317</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>105</v>
@@ -5595,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AF2EB-2EFD-4520-9043-337777890171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AD62D9-5587-425B-A9EF-2E2F498116FD}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8182,7 +8182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706574-BF94-447B-88DB-DBCE5A5046CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B534AAAA-A765-4C69-BC7D-6D57850D9E3A}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8573,7 +8573,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="7">
-        <v>65514</v>
+        <v>65513</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>649</v>
@@ -8828,7 +8828,7 @@
         <v>400</v>
       </c>
       <c r="I14" s="7">
-        <v>452673</v>
+        <v>452672</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>680</v>
@@ -8879,7 +8879,7 @@
         <v>890</v>
       </c>
       <c r="I15" s="7">
-        <v>992248</v>
+        <v>992247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>105</v>
